--- a/output.xlsx
+++ b/output.xlsx
@@ -455,16 +455,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1144.363</v>
+        <v>180.4746</v>
       </c>
       <c r="C2" t="n">
-        <v>13.7</v>
+        <v>6.1474</v>
       </c>
       <c r="D2" t="n">
-        <v>42.4888</v>
+        <v>19.8209</v>
       </c>
       <c r="E2" t="n">
-        <v>4.8753</v>
+        <v>3.4777</v>
       </c>
     </row>
     <row r="3">
@@ -474,16 +474,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>175.4107</v>
+        <v>15.8708</v>
       </c>
       <c r="C3" t="n">
-        <v>10.7334</v>
+        <v>3.0129</v>
       </c>
       <c r="D3" t="n">
-        <v>161.3931</v>
+        <v>9.4038</v>
       </c>
       <c r="E3" t="n">
-        <v>11.5244</v>
+        <v>2.0694</v>
       </c>
     </row>
     <row r="4">
@@ -493,16 +493,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.276</v>
+        <v>10.409</v>
       </c>
       <c r="C4" t="n">
-        <v>10.6695</v>
+        <v>2.4349</v>
       </c>
       <c r="D4" t="n">
-        <v>145.1086</v>
+        <v>8.945399999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>10.616</v>
+        <v>2.2236</v>
       </c>
     </row>
     <row r="5">
@@ -512,16 +512,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>162.2997</v>
+        <v>8.569800000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>10.7324</v>
+        <v>2.2226</v>
       </c>
       <c r="D5" t="n">
-        <v>143.9402</v>
+        <v>6.2374</v>
       </c>
       <c r="E5" t="n">
-        <v>10.1119</v>
+        <v>1.7314</v>
       </c>
     </row>
     <row r="6">
@@ -531,16 +531,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.4488</v>
+        <v>6.401</v>
       </c>
       <c r="C6" t="n">
-        <v>10.7604</v>
+        <v>1.9542</v>
       </c>
       <c r="D6" t="n">
-        <v>149.7697</v>
+        <v>3.6177</v>
       </c>
       <c r="E6" t="n">
-        <v>10.0114</v>
+        <v>1.2921</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.6374</v>
+        <v>6.1835</v>
       </c>
       <c r="C7" t="n">
-        <v>10.7659</v>
+        <v>1.8362</v>
       </c>
       <c r="D7" t="n">
-        <v>147.2303</v>
+        <v>4.9232</v>
       </c>
       <c r="E7" t="n">
-        <v>10.0362</v>
+        <v>1.7026</v>
       </c>
     </row>
     <row r="8">
@@ -569,16 +569,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>163.2551</v>
+        <v>5.6203</v>
       </c>
       <c r="C8" t="n">
-        <v>10.7555</v>
+        <v>1.7889</v>
       </c>
       <c r="D8" t="n">
-        <v>142.7726</v>
+        <v>8.8019</v>
       </c>
       <c r="E8" t="n">
-        <v>10.1587</v>
+        <v>2.6175</v>
       </c>
     </row>
     <row r="9">
@@ -588,16 +588,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>162.4432</v>
+        <v>4.7106</v>
       </c>
       <c r="C9" t="n">
-        <v>10.737</v>
+        <v>1.6933</v>
       </c>
       <c r="D9" t="n">
-        <v>142.2468</v>
+        <v>2.2759</v>
       </c>
       <c r="E9" t="n">
-        <v>10.3506</v>
+        <v>1.0886</v>
       </c>
     </row>
     <row r="10">
@@ -607,16 +607,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.7406</v>
+        <v>3.8472</v>
       </c>
       <c r="C10" t="n">
-        <v>10.7438</v>
+        <v>1.5276</v>
       </c>
       <c r="D10" t="n">
-        <v>143.2905</v>
+        <v>3.6371</v>
       </c>
       <c r="E10" t="n">
-        <v>10.4514</v>
+        <v>1.6054</v>
       </c>
     </row>
     <row r="11">
@@ -626,16 +626,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>160.4376</v>
+        <v>3.3092</v>
       </c>
       <c r="C11" t="n">
-        <v>10.6987</v>
+        <v>1.4353</v>
       </c>
       <c r="D11" t="n">
-        <v>147.0754</v>
+        <v>11.2815</v>
       </c>
       <c r="E11" t="n">
-        <v>10.7601</v>
+        <v>3.1412</v>
       </c>
     </row>
     <row r="12">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>159.4727</v>
+        <v>3.7334</v>
       </c>
       <c r="C12" t="n">
-        <v>10.6788</v>
+        <v>1.5253</v>
       </c>
       <c r="D12" t="n">
-        <v>150.8046</v>
+        <v>2.4405</v>
       </c>
       <c r="E12" t="n">
-        <v>10.9823</v>
+        <v>1.1743</v>
       </c>
     </row>
     <row r="13">
@@ -664,16 +664,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>158.7447</v>
+        <v>2.644</v>
       </c>
       <c r="C13" t="n">
-        <v>10.6589</v>
+        <v>1.2818</v>
       </c>
       <c r="D13" t="n">
-        <v>153.98</v>
+        <v>2.8504</v>
       </c>
       <c r="E13" t="n">
-        <v>11.159</v>
+        <v>1.4167</v>
       </c>
     </row>
     <row r="14">
@@ -683,16 +683,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>157.9525</v>
+        <v>1.7843</v>
       </c>
       <c r="C14" t="n">
-        <v>10.638</v>
+        <v>1.0497</v>
       </c>
       <c r="D14" t="n">
-        <v>156.9043</v>
+        <v>2.387</v>
       </c>
       <c r="E14" t="n">
-        <v>11.3137</v>
+        <v>1.2432</v>
       </c>
     </row>
     <row r="15">
@@ -702,16 +702,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.3584</v>
+        <v>1.453</v>
       </c>
       <c r="C15" t="n">
-        <v>10.6266</v>
+        <v>0.9406</v>
       </c>
       <c r="D15" t="n">
-        <v>155.4906</v>
+        <v>2.1188</v>
       </c>
       <c r="E15" t="n">
-        <v>11.241</v>
+        <v>1.1172</v>
       </c>
     </row>
     <row r="16">
@@ -721,16 +721,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.6679</v>
+        <v>1.4129</v>
       </c>
       <c r="C16" t="n">
-        <v>10.6129</v>
+        <v>0.9326</v>
       </c>
       <c r="D16" t="n">
-        <v>161.3001</v>
+        <v>2.5395</v>
       </c>
       <c r="E16" t="n">
-        <v>11.5203</v>
+        <v>1.2551</v>
       </c>
     </row>
     <row r="17">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>156.4262</v>
+        <v>1.9452</v>
       </c>
       <c r="C17" t="n">
-        <v>10.6037</v>
+        <v>1.1062</v>
       </c>
       <c r="D17" t="n">
-        <v>161.9026</v>
+        <v>0.9223</v>
       </c>
       <c r="E17" t="n">
-        <v>11.5467</v>
+        <v>0.705</v>
       </c>
     </row>
     <row r="18">
@@ -759,16 +759,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>155.9384</v>
+        <v>1.6149</v>
       </c>
       <c r="C18" t="n">
-        <v>10.5934</v>
+        <v>1.0126</v>
       </c>
       <c r="D18" t="n">
-        <v>162.4322</v>
+        <v>2.6033</v>
       </c>
       <c r="E18" t="n">
-        <v>11.5695</v>
+        <v>1.4013</v>
       </c>
     </row>
     <row r="19">
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>155.3862</v>
+        <v>2.142</v>
       </c>
       <c r="C19" t="n">
-        <v>10.5826</v>
+        <v>1.1511</v>
       </c>
       <c r="D19" t="n">
-        <v>161.8358</v>
+        <v>6.081</v>
       </c>
       <c r="E19" t="n">
-        <v>11.5438</v>
+        <v>2.1246</v>
       </c>
     </row>
     <row r="20">
@@ -797,16 +797,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>155.0516</v>
+        <v>2.4212</v>
       </c>
       <c r="C20" t="n">
-        <v>10.5731</v>
+        <v>1.2201</v>
       </c>
       <c r="D20" t="n">
-        <v>160.7521</v>
+        <v>3.1604</v>
       </c>
       <c r="E20" t="n">
-        <v>11.4959</v>
+        <v>1.5979</v>
       </c>
     </row>
     <row r="21">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>154.6478</v>
+        <v>2.3015</v>
       </c>
       <c r="C21" t="n">
-        <v>10.5623</v>
+        <v>1.1631</v>
       </c>
       <c r="D21" t="n">
-        <v>159.4497</v>
+        <v>1.5831</v>
       </c>
       <c r="E21" t="n">
-        <v>11.4365</v>
+        <v>1.0313</v>
       </c>
     </row>
     <row r="22">
@@ -835,16 +835,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>154.2574</v>
+        <v>1.2731</v>
       </c>
       <c r="C22" t="n">
-        <v>10.5513</v>
+        <v>0.8774</v>
       </c>
       <c r="D22" t="n">
-        <v>158.0547</v>
+        <v>0.9593</v>
       </c>
       <c r="E22" t="n">
-        <v>11.3704</v>
+        <v>0.7459</v>
       </c>
     </row>
     <row r="23">
@@ -854,16 +854,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>154.0101</v>
+        <v>0.7492</v>
       </c>
       <c r="C23" t="n">
-        <v>10.5455</v>
+        <v>0.6783</v>
       </c>
       <c r="D23" t="n">
-        <v>156.5669</v>
+        <v>0.6302</v>
       </c>
       <c r="E23" t="n">
-        <v>11.2967</v>
+        <v>0.5445</v>
       </c>
     </row>
     <row r="24">
@@ -873,16 +873,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>153.7671</v>
+        <v>1.2002</v>
       </c>
       <c r="C24" t="n">
-        <v>10.5392</v>
+        <v>0.79</v>
       </c>
       <c r="D24" t="n">
-        <v>155.1045</v>
+        <v>7.4246</v>
       </c>
       <c r="E24" t="n">
-        <v>11.2205</v>
+        <v>2.4417</v>
       </c>
     </row>
     <row r="25">
@@ -892,16 +892,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.5048</v>
+        <v>1.5181</v>
       </c>
       <c r="C25" t="n">
-        <v>10.5333</v>
+        <v>0.9673</v>
       </c>
       <c r="D25" t="n">
-        <v>153.7768</v>
+        <v>1.8076</v>
       </c>
       <c r="E25" t="n">
-        <v>11.1476</v>
+        <v>1.1319</v>
       </c>
     </row>
     <row r="26">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>153.329</v>
+        <v>1.2022</v>
       </c>
       <c r="C26" t="n">
-        <v>10.5283</v>
+        <v>0.8692</v>
       </c>
       <c r="D26" t="n">
-        <v>152.4543</v>
+        <v>2.64</v>
       </c>
       <c r="E26" t="n">
-        <v>11.0733</v>
+        <v>1.3797</v>
       </c>
     </row>
     <row r="27">
@@ -930,16 +930,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>153.0703</v>
+        <v>1.9366</v>
       </c>
       <c r="C27" t="n">
-        <v>10.5232</v>
+        <v>1.0862</v>
       </c>
       <c r="D27" t="n">
-        <v>151.246</v>
+        <v>0.6828</v>
       </c>
       <c r="E27" t="n">
-        <v>11.0074</v>
+        <v>0.5541</v>
       </c>
     </row>
     <row r="28">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>152.8856</v>
+        <v>1.6797</v>
       </c>
       <c r="C28" t="n">
-        <v>10.5171</v>
+        <v>1.0208</v>
       </c>
       <c r="D28" t="n">
-        <v>150.0719</v>
+        <v>0.8193</v>
       </c>
       <c r="E28" t="n">
-        <v>10.9391</v>
+        <v>0.677</v>
       </c>
     </row>
     <row r="29">
@@ -968,16 +968,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>152.6393</v>
+        <v>1.3012</v>
       </c>
       <c r="C29" t="n">
-        <v>10.5113</v>
+        <v>0.8985</v>
       </c>
       <c r="D29" t="n">
-        <v>149.1044</v>
+        <v>0.6375999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>10.8819</v>
+        <v>0.5739</v>
       </c>
     </row>
     <row r="30">
@@ -987,16 +987,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>227.0464</v>
+        <v>1.2368</v>
       </c>
       <c r="C30" t="n">
-        <v>10.9405</v>
+        <v>0.8811</v>
       </c>
       <c r="D30" t="n">
-        <v>165.3575</v>
+        <v>1.02</v>
       </c>
       <c r="E30" t="n">
-        <v>9.9825</v>
+        <v>0.7687</v>
       </c>
     </row>
     <row r="31">
@@ -1006,16 +1006,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.6187</v>
+        <v>1.8046</v>
       </c>
       <c r="C31" t="n">
-        <v>10.7654</v>
+        <v>1.0555</v>
       </c>
       <c r="D31" t="n">
-        <v>143.6008</v>
+        <v>0.6624</v>
       </c>
       <c r="E31" t="n">
-        <v>10.1236</v>
+        <v>0.5767</v>
       </c>
     </row>
     <row r="32">
@@ -1025,16 +1025,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>162.836</v>
+        <v>1.6893</v>
       </c>
       <c r="C32" t="n">
-        <v>10.7464</v>
+        <v>1.0184</v>
       </c>
       <c r="D32" t="n">
-        <v>142.0236</v>
+        <v>1.7609</v>
       </c>
       <c r="E32" t="n">
-        <v>10.2135</v>
+        <v>1.067</v>
       </c>
     </row>
     <row r="33">
@@ -1044,16 +1044,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>162.1626</v>
+        <v>1.2817</v>
       </c>
       <c r="C33" t="n">
-        <v>10.7334</v>
+        <v>0.8756</v>
       </c>
       <c r="D33" t="n">
-        <v>142.2639</v>
+        <v>0.7537</v>
       </c>
       <c r="E33" t="n">
-        <v>10.3531</v>
+        <v>0.6387</v>
       </c>
     </row>
     <row r="34">
@@ -1063,16 +1063,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>161.4148</v>
+        <v>1.7149</v>
       </c>
       <c r="C34" t="n">
-        <v>10.7165</v>
+        <v>1.0057</v>
       </c>
       <c r="D34" t="n">
-        <v>143.8255</v>
+        <v>1.2194</v>
       </c>
       <c r="E34" t="n">
-        <v>10.5038</v>
+        <v>0.8293</v>
       </c>
     </row>
     <row r="35">
@@ -1082,16 +1082,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>160.8426</v>
+        <v>1.8691</v>
       </c>
       <c r="C35" t="n">
-        <v>10.7061</v>
+        <v>1.063</v>
       </c>
       <c r="D35" t="n">
-        <v>141.8983</v>
+        <v>0.4759</v>
       </c>
       <c r="E35" t="n">
-        <v>10.2457</v>
+        <v>0.4373</v>
       </c>
     </row>
     <row r="36">
@@ -1101,16 +1101,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>160.0816</v>
+        <v>1.1927</v>
       </c>
       <c r="C36" t="n">
-        <v>10.6927</v>
+        <v>0.8611</v>
       </c>
       <c r="D36" t="n">
-        <v>143.6131</v>
+        <v>0.7949000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>10.4828</v>
+        <v>0.5172</v>
       </c>
     </row>
     <row r="37">
@@ -1120,16 +1120,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>159.3591</v>
+        <v>0.8036</v>
       </c>
       <c r="C37" t="n">
-        <v>10.6756</v>
+        <v>0.7128</v>
       </c>
       <c r="D37" t="n">
-        <v>151.3295</v>
+        <v>0.5191</v>
       </c>
       <c r="E37" t="n">
-        <v>11.0121</v>
+        <v>0.4876</v>
       </c>
     </row>
     <row r="38">
@@ -1139,16 +1139,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>158.6678</v>
+        <v>0.4678</v>
       </c>
       <c r="C38" t="n">
-        <v>10.6534</v>
+        <v>0.5407</v>
       </c>
       <c r="D38" t="n">
-        <v>154.082</v>
+        <v>0.4499</v>
       </c>
       <c r="E38" t="n">
-        <v>11.1647</v>
+        <v>0.4514</v>
       </c>
     </row>
     <row r="39">
@@ -1158,16 +1158,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>157.8111</v>
+        <v>0.3886</v>
       </c>
       <c r="C39" t="n">
-        <v>10.6355</v>
+        <v>0.499</v>
       </c>
       <c r="D39" t="n">
-        <v>157.061</v>
+        <v>0.4733</v>
       </c>
       <c r="E39" t="n">
-        <v>11.3216</v>
+        <v>0.4331</v>
       </c>
     </row>
     <row r="40">
@@ -1177,16 +1177,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>157.6438</v>
+        <v>0.6201</v>
       </c>
       <c r="C40" t="n">
-        <v>10.6326</v>
+        <v>0.6079</v>
       </c>
       <c r="D40" t="n">
-        <v>159.435</v>
+        <v>0.9989</v>
       </c>
       <c r="E40" t="n">
-        <v>11.4358</v>
+        <v>0.7391</v>
       </c>
     </row>
     <row r="41">
@@ -1196,16 +1196,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>157.1238</v>
+        <v>0.8091</v>
       </c>
       <c r="C41" t="n">
-        <v>10.6201</v>
+        <v>0.7145</v>
       </c>
       <c r="D41" t="n">
-        <v>160.9227</v>
+        <v>1.1575</v>
       </c>
       <c r="E41" t="n">
-        <v>11.5035</v>
+        <v>0.8735000000000001</v>
       </c>
     </row>
     <row r="42">
@@ -1215,16 +1215,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>156.6828</v>
+        <v>0.7933</v>
       </c>
       <c r="C42" t="n">
-        <v>10.6089</v>
+        <v>0.694</v>
       </c>
       <c r="D42" t="n">
-        <v>162.0846</v>
+        <v>0.6976</v>
       </c>
       <c r="E42" t="n">
-        <v>11.5546</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="43">
@@ -1234,16 +1234,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>156.1243</v>
+        <v>0.4794</v>
       </c>
       <c r="C43" t="n">
-        <v>10.5945</v>
+        <v>0.5538</v>
       </c>
       <c r="D43" t="n">
-        <v>162.6175</v>
+        <v>0.4537</v>
       </c>
       <c r="E43" t="n">
-        <v>11.5775</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="44">
@@ -1253,16 +1253,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>155.6877</v>
+        <v>0.6163999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>10.5835</v>
+        <v>0.6277</v>
       </c>
       <c r="D44" t="n">
-        <v>162.5364</v>
+        <v>0.7671</v>
       </c>
       <c r="E44" t="n">
-        <v>11.574</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="45">
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>155.2451</v>
+        <v>0.9728</v>
       </c>
       <c r="C45" t="n">
-        <v>10.574</v>
+        <v>0.7554</v>
       </c>
       <c r="D45" t="n">
-        <v>161.7916</v>
+        <v>0.8319</v>
       </c>
       <c r="E45" t="n">
-        <v>11.5418</v>
+        <v>0.6869</v>
       </c>
     </row>
     <row r="46">
@@ -1291,16 +1291,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>154.8301</v>
+        <v>1.2127</v>
       </c>
       <c r="C46" t="n">
-        <v>10.5648</v>
+        <v>0.8579</v>
       </c>
       <c r="D46" t="n">
-        <v>160.1998</v>
+        <v>0.3173</v>
       </c>
       <c r="E46" t="n">
-        <v>11.471</v>
+        <v>0.3799</v>
       </c>
     </row>
     <row r="47">
@@ -1310,16 +1310,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>154.3264</v>
+        <v>1.0459</v>
       </c>
       <c r="C47" t="n">
-        <v>10.5547</v>
+        <v>0.7986</v>
       </c>
       <c r="D47" t="n">
-        <v>157.6939</v>
+        <v>0.4738</v>
       </c>
       <c r="E47" t="n">
-        <v>11.3529</v>
+        <v>0.4081</v>
       </c>
     </row>
     <row r="48">
@@ -1329,16 +1329,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>153.6876</v>
+        <v>1.0351</v>
       </c>
       <c r="C48" t="n">
-        <v>10.5372</v>
+        <v>0.7975</v>
       </c>
       <c r="D48" t="n">
-        <v>153.571</v>
+        <v>0.9707</v>
       </c>
       <c r="E48" t="n">
-        <v>11.1359</v>
+        <v>0.7964</v>
       </c>
     </row>
     <row r="49">
@@ -1348,16 +1348,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>153.1042</v>
+        <v>1.0609</v>
       </c>
       <c r="C49" t="n">
-        <v>10.5236</v>
+        <v>0.8199</v>
       </c>
       <c r="D49" t="n">
-        <v>150.5253</v>
+        <v>0.7701</v>
       </c>
       <c r="E49" t="n">
-        <v>10.966</v>
+        <v>0.6624</v>
       </c>
     </row>
     <row r="50">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>152.5744</v>
+        <v>0.9957</v>
       </c>
       <c r="C50" t="n">
-        <v>10.5098</v>
+        <v>0.784</v>
       </c>
       <c r="D50" t="n">
-        <v>148.2313</v>
+        <v>0.9123</v>
       </c>
       <c r="E50" t="n">
-        <v>10.8319</v>
+        <v>0.8072</v>
       </c>
     </row>
     <row r="51">
@@ -1386,16 +1386,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>151.7629</v>
+        <v>1.1577</v>
       </c>
       <c r="C51" t="n">
-        <v>10.4885</v>
+        <v>0.835</v>
       </c>
       <c r="D51" t="n">
-        <v>143.9925</v>
+        <v>2.2442</v>
       </c>
       <c r="E51" t="n">
-        <v>10.5194</v>
+        <v>1.3988</v>
       </c>
     </row>
     <row r="52">
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>150.8891</v>
+        <v>1.1963</v>
       </c>
       <c r="C52" t="n">
-        <v>10.4661</v>
+        <v>0.8673999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>142.9628</v>
+        <v>1.2577</v>
       </c>
       <c r="E52" t="n">
-        <v>10.4258</v>
+        <v>0.9905</v>
       </c>
     </row>
     <row r="53">
@@ -1424,16 +1424,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>150.1259</v>
+        <v>0.9542</v>
       </c>
       <c r="C53" t="n">
-        <v>10.4481</v>
+        <v>0.7662</v>
       </c>
       <c r="D53" t="n">
-        <v>142.3398</v>
+        <v>1.3873</v>
       </c>
       <c r="E53" t="n">
-        <v>10.3632</v>
+        <v>1.024</v>
       </c>
     </row>
     <row r="54">
@@ -1443,16 +1443,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>150.012</v>
+        <v>0.8131</v>
       </c>
       <c r="C54" t="n">
-        <v>10.4452</v>
+        <v>0.7094</v>
       </c>
       <c r="D54" t="n">
-        <v>142.0491</v>
+        <v>0.9603</v>
       </c>
       <c r="E54" t="n">
-        <v>10.3164</v>
+        <v>0.7999000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -1462,16 +1462,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>149.7802</v>
+        <v>0.7299</v>
       </c>
       <c r="C55" t="n">
-        <v>10.4399</v>
+        <v>0.6666</v>
       </c>
       <c r="D55" t="n">
-        <v>141.978</v>
+        <v>1.0447</v>
       </c>
       <c r="E55" t="n">
-        <v>10.2986</v>
+        <v>0.8214</v>
       </c>
     </row>
     <row r="56">
@@ -1481,16 +1481,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>149.6942</v>
+        <v>0.7028</v>
       </c>
       <c r="C56" t="n">
-        <v>10.4384</v>
+        <v>0.6481</v>
       </c>
       <c r="D56" t="n">
-        <v>141.9301</v>
+        <v>1.6338</v>
       </c>
       <c r="E56" t="n">
-        <v>10.2814</v>
+        <v>1.0614</v>
       </c>
     </row>
     <row r="57">
@@ -1500,16 +1500,16 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>149.1714</v>
+        <v>1.2407</v>
       </c>
       <c r="C57" t="n">
-        <v>10.4239</v>
+        <v>0.8492</v>
       </c>
       <c r="D57" t="n">
-        <v>141.8944</v>
+        <v>1.0142</v>
       </c>
       <c r="E57" t="n">
-        <v>10.2563</v>
+        <v>0.6581</v>
       </c>
     </row>
     <row r="58">
@@ -1519,16 +1519,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>149.3637</v>
+        <v>1.351</v>
       </c>
       <c r="C58" t="n">
-        <v>10.4296</v>
+        <v>0.9065</v>
       </c>
       <c r="D58" t="n">
-        <v>141.8939</v>
+        <v>3.5148</v>
       </c>
       <c r="E58" t="n">
-        <v>10.252</v>
+        <v>1.7483</v>
       </c>
     </row>
     <row r="59">
@@ -1538,16 +1538,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>160.8511</v>
+        <v>0.7899</v>
       </c>
       <c r="C59" t="n">
-        <v>10.5147</v>
+        <v>0.6683</v>
       </c>
       <c r="D59" t="n">
-        <v>157.6214</v>
+        <v>1.9719</v>
       </c>
       <c r="E59" t="n">
-        <v>11.3493</v>
+        <v>1.2991</v>
       </c>
     </row>
     <row r="60">
@@ -1557,16 +1557,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>527.4902</v>
+        <v>0.3853</v>
       </c>
       <c r="C60" t="n">
-        <v>12.8524</v>
+        <v>0.4708</v>
       </c>
       <c r="D60" t="n">
-        <v>142.5742</v>
+        <v>0.4675</v>
       </c>
       <c r="E60" t="n">
-        <v>10.3901</v>
+        <v>0.5039</v>
       </c>
     </row>
     <row r="61">
@@ -1576,16 +1576,16 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>146.5755</v>
+        <v>0.2284</v>
       </c>
       <c r="C61" t="n">
-        <v>10.3772</v>
+        <v>0.3757</v>
       </c>
       <c r="D61" t="n">
-        <v>142.1389</v>
+        <v>0.2878</v>
       </c>
       <c r="E61" t="n">
-        <v>10.3337</v>
+        <v>0.3504</v>
       </c>
     </row>
     <row r="62">
@@ -1595,16 +1595,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>147.3449</v>
+        <v>0.2342</v>
       </c>
       <c r="C62" t="n">
-        <v>10.3863</v>
+        <v>0.383</v>
       </c>
       <c r="D62" t="n">
-        <v>141.9815</v>
+        <v>0.6001</v>
       </c>
       <c r="E62" t="n">
-        <v>10.2198</v>
+        <v>0.6052</v>
       </c>
     </row>
     <row r="63">
@@ -1614,16 +1614,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>148.0382</v>
+        <v>0.6472</v>
       </c>
       <c r="C63" t="n">
-        <v>10.4001</v>
+        <v>0.6072</v>
       </c>
       <c r="D63" t="n">
-        <v>142.0649</v>
+        <v>0.9506</v>
       </c>
       <c r="E63" t="n">
-        <v>10.2083</v>
+        <v>0.7785</v>
       </c>
     </row>
     <row r="64">
@@ -1633,16 +1633,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>148.4078</v>
+        <v>0.3057</v>
       </c>
       <c r="C64" t="n">
-        <v>10.4082</v>
+        <v>0.4292</v>
       </c>
       <c r="D64" t="n">
-        <v>142.0314</v>
+        <v>0.5404</v>
       </c>
       <c r="E64" t="n">
-        <v>10.2126</v>
+        <v>0.4981</v>
       </c>
     </row>
     <row r="65">
@@ -1652,16 +1652,16 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>148.5206</v>
+        <v>0.27</v>
       </c>
       <c r="C65" t="n">
-        <v>10.4104</v>
+        <v>0.4113</v>
       </c>
       <c r="D65" t="n">
-        <v>142.0249</v>
+        <v>1.007</v>
       </c>
       <c r="E65" t="n">
-        <v>10.2135</v>
+        <v>0.8436</v>
       </c>
     </row>
     <row r="66">
@@ -1671,16 +1671,16 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>148.5089</v>
+        <v>0.4952</v>
       </c>
       <c r="C66" t="n">
-        <v>10.4102</v>
+        <v>0.5416</v>
       </c>
       <c r="D66" t="n">
-        <v>142.0341</v>
+        <v>0.9751</v>
       </c>
       <c r="E66" t="n">
-        <v>10.2123</v>
+        <v>0.7833</v>
       </c>
     </row>
     <row r="67">
@@ -1690,16 +1690,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>148.4521</v>
+        <v>0.4732</v>
       </c>
       <c r="C67" t="n">
-        <v>10.4091</v>
+        <v>0.5371</v>
       </c>
       <c r="D67" t="n">
-        <v>142.0462</v>
+        <v>0.4043</v>
       </c>
       <c r="E67" t="n">
-        <v>10.2107</v>
+        <v>0.4141</v>
       </c>
     </row>
     <row r="68">
@@ -1709,16 +1709,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>148.3842</v>
+        <v>0.5181</v>
       </c>
       <c r="C68" t="n">
-        <v>10.4078</v>
+        <v>0.5609</v>
       </c>
       <c r="D68" t="n">
-        <v>142.0583</v>
+        <v>0.8925999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>10.2093</v>
+        <v>0.7924</v>
       </c>
     </row>
     <row r="69">
@@ -1728,16 +1728,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>148.3132</v>
+        <v>0.5031</v>
       </c>
       <c r="C69" t="n">
-        <v>10.4064</v>
+        <v>0.5397</v>
       </c>
       <c r="D69" t="n">
-        <v>142.067</v>
+        <v>0.7466</v>
       </c>
       <c r="E69" t="n">
-        <v>10.2083</v>
+        <v>0.6378</v>
       </c>
     </row>
     <row r="70">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>148.2406</v>
+        <v>0.3817</v>
       </c>
       <c r="C70" t="n">
-        <v>10.4048</v>
+        <v>0.4803</v>
       </c>
       <c r="D70" t="n">
-        <v>142.0662</v>
+        <v>0.5563</v>
       </c>
       <c r="E70" t="n">
-        <v>10.2078</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="71">
@@ -1766,16 +1766,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>139.5243</v>
+        <v>0.6427</v>
       </c>
       <c r="C71" t="n">
-        <v>9.9038</v>
+        <v>0.62</v>
       </c>
       <c r="D71" t="n">
-        <v>120.5974</v>
+        <v>1.1324</v>
       </c>
       <c r="E71" t="n">
-        <v>9.389900000000001</v>
+        <v>0.5281</v>
       </c>
     </row>
     <row r="72">
@@ -1785,16 +1785,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>93.8008</v>
+        <v>0.5574</v>
       </c>
       <c r="C72" t="n">
-        <v>7.4745</v>
+        <v>0.5788</v>
       </c>
       <c r="D72" t="n">
-        <v>70.9481</v>
+        <v>0.6679</v>
       </c>
       <c r="E72" t="n">
-        <v>6.4786</v>
+        <v>0.5955</v>
       </c>
     </row>
     <row r="73">
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>51.7218</v>
+        <v>0.2403</v>
       </c>
       <c r="C73" t="n">
-        <v>5.406</v>
+        <v>0.3871</v>
       </c>
       <c r="D73" t="n">
-        <v>36.5936</v>
+        <v>0.7008</v>
       </c>
       <c r="E73" t="n">
-        <v>4.4609</v>
+        <v>0.6672</v>
       </c>
     </row>
     <row r="74">
@@ -1823,16 +1823,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>36.4365</v>
+        <v>0.1616</v>
       </c>
       <c r="C74" t="n">
-        <v>4.3854</v>
+        <v>0.3196</v>
       </c>
       <c r="D74" t="n">
-        <v>27.926</v>
+        <v>0.7437</v>
       </c>
       <c r="E74" t="n">
-        <v>3.7204</v>
+        <v>0.6749000000000001</v>
       </c>
     </row>
     <row r="75">
@@ -1842,16 +1842,16 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>29.7041</v>
+        <v>0.3913</v>
       </c>
       <c r="C75" t="n">
-        <v>3.9579</v>
+        <v>0.4493</v>
       </c>
       <c r="D75" t="n">
-        <v>25.1316</v>
+        <v>1.7181</v>
       </c>
       <c r="E75" t="n">
-        <v>3.4735</v>
+        <v>1.0469</v>
       </c>
     </row>
     <row r="76">
@@ -1861,16 +1861,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>23.5965</v>
+        <v>0.521</v>
       </c>
       <c r="C76" t="n">
-        <v>3.4725</v>
+        <v>0.5465</v>
       </c>
       <c r="D76" t="n">
-        <v>23.0492</v>
+        <v>0.5849</v>
       </c>
       <c r="E76" t="n">
-        <v>3.2587</v>
+        <v>0.3836</v>
       </c>
     </row>
     <row r="77">
@@ -1880,16 +1880,16 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>20.4112</v>
+        <v>0.4626</v>
       </c>
       <c r="C77" t="n">
-        <v>3.2019</v>
+        <v>0.5261</v>
       </c>
       <c r="D77" t="n">
-        <v>18.4897</v>
+        <v>0.578</v>
       </c>
       <c r="E77" t="n">
-        <v>3.001</v>
+        <v>0.5572</v>
       </c>
     </row>
     <row r="78">
@@ -1899,16 +1899,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>16.7797</v>
+        <v>0.3444</v>
       </c>
       <c r="C78" t="n">
-        <v>2.8574</v>
+        <v>0.4595</v>
       </c>
       <c r="D78" t="n">
-        <v>16.7997</v>
+        <v>0.7033</v>
       </c>
       <c r="E78" t="n">
-        <v>2.7899</v>
+        <v>0.6127</v>
       </c>
     </row>
     <row r="79">
@@ -1918,16 +1918,16 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>14.5129</v>
+        <v>0.3169</v>
       </c>
       <c r="C79" t="n">
-        <v>2.65</v>
+        <v>0.433</v>
       </c>
       <c r="D79" t="n">
-        <v>22.7941</v>
+        <v>0.4414</v>
       </c>
       <c r="E79" t="n">
-        <v>2.9647</v>
+        <v>0.4149</v>
       </c>
     </row>
     <row r="80">
@@ -1937,16 +1937,16 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>46.3374</v>
+        <v>0.5538</v>
       </c>
       <c r="C80" t="n">
-        <v>4.8871</v>
+        <v>0.5823</v>
       </c>
       <c r="D80" t="n">
-        <v>20.4504</v>
+        <v>0.6565</v>
       </c>
       <c r="E80" t="n">
-        <v>3.1618</v>
+        <v>0.5923</v>
       </c>
     </row>
     <row r="81">
@@ -1956,16 +1956,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>19.771</v>
+        <v>0.7835</v>
       </c>
       <c r="C81" t="n">
-        <v>3.1755</v>
+        <v>0.6926</v>
       </c>
       <c r="D81" t="n">
-        <v>14.9147</v>
+        <v>1.8188</v>
       </c>
       <c r="E81" t="n">
-        <v>2.4824</v>
+        <v>1.1608</v>
       </c>
     </row>
     <row r="82">
@@ -1975,16 +1975,16 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>15.0655</v>
+        <v>0.5506</v>
       </c>
       <c r="C82" t="n">
-        <v>2.7493</v>
+        <v>0.5965</v>
       </c>
       <c r="D82" t="n">
-        <v>13.947</v>
+        <v>1.6953</v>
       </c>
       <c r="E82" t="n">
-        <v>2.5367</v>
+        <v>1.1463</v>
       </c>
     </row>
     <row r="83">
@@ -1994,16 +1994,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>14.4916</v>
+        <v>0.5259</v>
       </c>
       <c r="C83" t="n">
-        <v>2.6597</v>
+        <v>0.5756</v>
       </c>
       <c r="D83" t="n">
-        <v>12.3622</v>
+        <v>0.7843</v>
       </c>
       <c r="E83" t="n">
-        <v>2.4103</v>
+        <v>0.6756</v>
       </c>
     </row>
     <row r="84">
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>9.8665</v>
+        <v>0.4405</v>
       </c>
       <c r="C84" t="n">
-        <v>2.2353</v>
+        <v>0.5294</v>
       </c>
       <c r="D84" t="n">
-        <v>7.947</v>
+        <v>0.9045</v>
       </c>
       <c r="E84" t="n">
-        <v>1.8305</v>
+        <v>0.7216</v>
       </c>
     </row>
     <row r="85">
@@ -2032,16 +2032,16 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>9.3239</v>
+        <v>0.4636</v>
       </c>
       <c r="C85" t="n">
-        <v>2.0991</v>
+        <v>0.5471</v>
       </c>
       <c r="D85" t="n">
-        <v>12.2851</v>
+        <v>1.5244</v>
       </c>
       <c r="E85" t="n">
-        <v>2.6458</v>
+        <v>1.0345</v>
       </c>
     </row>
     <row r="86">
@@ -2051,16 +2051,16 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>9.8691</v>
+        <v>0.7713</v>
       </c>
       <c r="C86" t="n">
-        <v>2.1797</v>
+        <v>0.7042</v>
       </c>
       <c r="D86" t="n">
-        <v>12.0328</v>
+        <v>0.9073</v>
       </c>
       <c r="E86" t="n">
-        <v>2.3727</v>
+        <v>0.7159</v>
       </c>
     </row>
     <row r="87">
@@ -2070,16 +2070,16 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>6.9464</v>
+        <v>0.7658</v>
       </c>
       <c r="C87" t="n">
-        <v>1.8443</v>
+        <v>0.6807</v>
       </c>
       <c r="D87" t="n">
-        <v>6.793</v>
+        <v>0.6694</v>
       </c>
       <c r="E87" t="n">
-        <v>1.7352</v>
+        <v>0.4828</v>
       </c>
     </row>
     <row r="88">
@@ -2089,16 +2089,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>12.2606</v>
+        <v>0.5215</v>
       </c>
       <c r="C88" t="n">
-        <v>2.322</v>
+        <v>0.5662</v>
       </c>
       <c r="D88" t="n">
-        <v>7.174</v>
+        <v>0.4901</v>
       </c>
       <c r="E88" t="n">
-        <v>1.6548</v>
+        <v>0.4847</v>
       </c>
     </row>
     <row r="89">
@@ -2108,16 +2108,16 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5.8791</v>
+        <v>0.2878</v>
       </c>
       <c r="C89" t="n">
-        <v>1.7206</v>
+        <v>0.4157</v>
       </c>
       <c r="D89" t="n">
-        <v>6.404</v>
+        <v>0.357</v>
       </c>
       <c r="E89" t="n">
-        <v>1.5446</v>
+        <v>0.3051</v>
       </c>
     </row>
     <row r="90">
@@ -2127,16 +2127,16 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4.8776</v>
+        <v>0.1684</v>
       </c>
       <c r="C90" t="n">
-        <v>1.5749</v>
+        <v>0.3296</v>
       </c>
       <c r="D90" t="n">
-        <v>7.3059</v>
+        <v>0.3352</v>
       </c>
       <c r="E90" t="n">
-        <v>1.7478</v>
+        <v>0.3553</v>
       </c>
     </row>
     <row r="91">
@@ -2146,16 +2146,16 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7.302</v>
+        <v>0.1748</v>
       </c>
       <c r="C91" t="n">
-        <v>1.7999</v>
+        <v>0.3302</v>
       </c>
       <c r="D91" t="n">
-        <v>6.6862</v>
+        <v>0.3983</v>
       </c>
       <c r="E91" t="n">
-        <v>1.6644</v>
+        <v>0.3588</v>
       </c>
     </row>
     <row r="92">
@@ -2165,16 +2165,16 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>4.978</v>
+        <v>0.2691</v>
       </c>
       <c r="C92" t="n">
-        <v>1.5404</v>
+        <v>0.3976</v>
       </c>
       <c r="D92" t="n">
-        <v>5.8554</v>
+        <v>0.3611</v>
       </c>
       <c r="E92" t="n">
-        <v>1.468</v>
+        <v>0.4025</v>
       </c>
     </row>
     <row r="93">
@@ -2184,16 +2184,16 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>4.6887</v>
+        <v>0.3168</v>
       </c>
       <c r="C93" t="n">
-        <v>1.5212</v>
+        <v>0.4316</v>
       </c>
       <c r="D93" t="n">
-        <v>6.0917</v>
+        <v>0.5037</v>
       </c>
       <c r="E93" t="n">
-        <v>1.3764</v>
+        <v>0.5199</v>
       </c>
     </row>
     <row r="94">
@@ -2203,16 +2203,16 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>5.6336</v>
+        <v>0.2843</v>
       </c>
       <c r="C94" t="n">
-        <v>1.5918</v>
+        <v>0.4118</v>
       </c>
       <c r="D94" t="n">
-        <v>5.6397</v>
+        <v>0.4085</v>
       </c>
       <c r="E94" t="n">
-        <v>1.5817</v>
+        <v>0.4592</v>
       </c>
     </row>
     <row r="95">
@@ -2222,16 +2222,16 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>6.9276</v>
+        <v>0.4442</v>
       </c>
       <c r="C95" t="n">
-        <v>1.7166</v>
+        <v>0.4948</v>
       </c>
       <c r="D95" t="n">
-        <v>6.6206</v>
+        <v>1.081</v>
       </c>
       <c r="E95" t="n">
-        <v>1.9002</v>
+        <v>0.8058</v>
       </c>
     </row>
     <row r="96">
@@ -2241,16 +2241,16 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3.5819</v>
+        <v>0.404</v>
       </c>
       <c r="C96" t="n">
-        <v>1.3485</v>
+        <v>0.4685</v>
       </c>
       <c r="D96" t="n">
-        <v>4.8305</v>
+        <v>0.8199</v>
       </c>
       <c r="E96" t="n">
-        <v>1.4144</v>
+        <v>0.7544</v>
       </c>
     </row>
     <row r="97">
@@ -2260,16 +2260,16 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>4.6521</v>
+        <v>0.2229</v>
       </c>
       <c r="C97" t="n">
-        <v>1.4872</v>
+        <v>0.3702</v>
       </c>
       <c r="D97" t="n">
-        <v>8.055199999999999</v>
+        <v>1.0508</v>
       </c>
       <c r="E97" t="n">
-        <v>1.8743</v>
+        <v>0.9292</v>
       </c>
     </row>
     <row r="98">
@@ -2279,16 +2279,16 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3.7581</v>
+        <v>0.192</v>
       </c>
       <c r="C98" t="n">
-        <v>1.3179</v>
+        <v>0.341</v>
       </c>
       <c r="D98" t="n">
-        <v>3.9973</v>
+        <v>0.5675</v>
       </c>
       <c r="E98" t="n">
-        <v>1.3076</v>
+        <v>0.6345</v>
       </c>
     </row>
     <row r="99">
@@ -2298,16 +2298,16 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3.2094</v>
+        <v>0.2206</v>
       </c>
       <c r="C99" t="n">
-        <v>1.2287</v>
+        <v>0.3611</v>
       </c>
       <c r="D99" t="n">
-        <v>25.3788</v>
+        <v>0.6764</v>
       </c>
       <c r="E99" t="n">
-        <v>4.1453</v>
+        <v>0.6991000000000001</v>
       </c>
     </row>
     <row r="100">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>16.1203</v>
+        <v>0.2553</v>
       </c>
       <c r="C100" t="n">
-        <v>2.3196</v>
+        <v>0.3961</v>
       </c>
       <c r="D100" t="n">
-        <v>17.4619</v>
+        <v>0.6417</v>
       </c>
       <c r="E100" t="n">
-        <v>3.1435</v>
+        <v>0.6778999999999999</v>
       </c>
     </row>
     <row r="101">
@@ -2336,16 +2336,16 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>11.9946</v>
+        <v>0.349</v>
       </c>
       <c r="C101" t="n">
-        <v>2.5222</v>
+        <v>0.4533</v>
       </c>
       <c r="D101" t="n">
-        <v>13.1239</v>
+        <v>0.7373</v>
       </c>
       <c r="E101" t="n">
-        <v>2.8732</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="102">
@@ -2355,16 +2355,16 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>7.0146</v>
+        <v>0.5454</v>
       </c>
       <c r="C102" t="n">
-        <v>1.9034</v>
+        <v>0.5593</v>
       </c>
       <c r="D102" t="n">
-        <v>8.834</v>
+        <v>0.3096</v>
       </c>
       <c r="E102" t="n">
-        <v>2.2378</v>
+        <v>0.2983</v>
       </c>
     </row>
     <row r="103">
@@ -2374,16 +2374,16 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>4.9661</v>
+        <v>0.2672</v>
       </c>
       <c r="C103" t="n">
-        <v>1.6105</v>
+        <v>0.4036</v>
       </c>
       <c r="D103" t="n">
-        <v>6.9776</v>
+        <v>0.3781</v>
       </c>
       <c r="E103" t="n">
-        <v>1.7352</v>
+        <v>0.3511</v>
       </c>
     </row>
     <row r="104">
@@ -2393,16 +2393,16 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>4.8874</v>
+        <v>0.2106</v>
       </c>
       <c r="C104" t="n">
-        <v>1.5395</v>
+        <v>0.3599</v>
       </c>
       <c r="D104" t="n">
-        <v>7.0088</v>
+        <v>0.4685</v>
       </c>
       <c r="E104" t="n">
-        <v>1.7022</v>
+        <v>0.4884</v>
       </c>
     </row>
     <row r="105">
@@ -2412,16 +2412,16 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3.2497</v>
+        <v>0.1768</v>
       </c>
       <c r="C105" t="n">
-        <v>1.3124</v>
+        <v>0.3241</v>
       </c>
       <c r="D105" t="n">
-        <v>5.3412</v>
+        <v>0.6397</v>
       </c>
       <c r="E105" t="n">
-        <v>1.4715</v>
+        <v>0.5554</v>
       </c>
     </row>
     <row r="106">
@@ -2431,16 +2431,16 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4.3659</v>
+        <v>0.1826</v>
       </c>
       <c r="C106" t="n">
-        <v>1.4319</v>
+        <v>0.3306</v>
       </c>
       <c r="D106" t="n">
-        <v>8.5565</v>
+        <v>0.913</v>
       </c>
       <c r="E106" t="n">
-        <v>1.9852</v>
+        <v>0.8004</v>
       </c>
     </row>
     <row r="107">
@@ -2450,16 +2450,16 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>4.7276</v>
+        <v>0.2523</v>
       </c>
       <c r="C107" t="n">
-        <v>1.4613</v>
+        <v>0.3898</v>
       </c>
       <c r="D107" t="n">
-        <v>4.5606</v>
+        <v>0.7066</v>
       </c>
       <c r="E107" t="n">
-        <v>1.3036</v>
+        <v>0.6606</v>
       </c>
     </row>
     <row r="108">
@@ -2469,16 +2469,16 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2.8673</v>
+        <v>0.2703</v>
       </c>
       <c r="C108" t="n">
-        <v>1.1971</v>
+        <v>0.4032</v>
       </c>
       <c r="D108" t="n">
-        <v>4.5108</v>
+        <v>0.4879</v>
       </c>
       <c r="E108" t="n">
-        <v>1.2176</v>
+        <v>0.4813</v>
       </c>
     </row>
     <row r="109">
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2.3022</v>
+        <v>0.3347</v>
       </c>
       <c r="C109" t="n">
-        <v>1.0952</v>
+        <v>0.4575</v>
       </c>
       <c r="D109" t="n">
-        <v>3.9751</v>
+        <v>0.5057</v>
       </c>
       <c r="E109" t="n">
-        <v>1.1858</v>
+        <v>0.5518</v>
       </c>
     </row>
     <row r="110">
@@ -2507,16 +2507,16 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>10.65</v>
+        <v>0.3853</v>
       </c>
       <c r="C110" t="n">
-        <v>1.9796</v>
+        <v>0.4826</v>
       </c>
       <c r="D110" t="n">
-        <v>9.531499999999999</v>
+        <v>0.447</v>
       </c>
       <c r="E110" t="n">
-        <v>2.0244</v>
+        <v>0.3344</v>
       </c>
     </row>
     <row r="111">
@@ -2526,16 +2526,16 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>5.6691</v>
+        <v>0.4601</v>
       </c>
       <c r="C111" t="n">
-        <v>1.6527</v>
+        <v>0.5311</v>
       </c>
       <c r="D111" t="n">
-        <v>4.509</v>
+        <v>0.5188</v>
       </c>
       <c r="E111" t="n">
-        <v>1.306</v>
+        <v>0.4541</v>
       </c>
     </row>
     <row r="112">
@@ -2545,16 +2545,16 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3.5116</v>
+        <v>0.5802</v>
       </c>
       <c r="C112" t="n">
-        <v>1.3178</v>
+        <v>0.5984</v>
       </c>
       <c r="D112" t="n">
-        <v>6.5797</v>
+        <v>0.2494</v>
       </c>
       <c r="E112" t="n">
-        <v>1.7904</v>
+        <v>0.3239</v>
       </c>
     </row>
     <row r="113">
@@ -2564,16 +2564,16 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>3.3925</v>
+        <v>0.6231</v>
       </c>
       <c r="C113" t="n">
-        <v>1.2945</v>
+        <v>0.6322</v>
       </c>
       <c r="D113" t="n">
-        <v>5.353</v>
+        <v>0.5134</v>
       </c>
       <c r="E113" t="n">
-        <v>1.6869</v>
+        <v>0.5512</v>
       </c>
     </row>
     <row r="114">
@@ -2583,16 +2583,16 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2.0268</v>
+        <v>0.5512</v>
       </c>
       <c r="C114" t="n">
-        <v>1.042</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>5.2323</v>
+        <v>0.5268</v>
       </c>
       <c r="E114" t="n">
-        <v>1.4591</v>
+        <v>0.5997</v>
       </c>
     </row>
     <row r="115">
@@ -2602,16 +2602,16 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>6.7379</v>
+        <v>0.3818</v>
       </c>
       <c r="C115" t="n">
-        <v>1.6867</v>
+        <v>0.4865</v>
       </c>
       <c r="D115" t="n">
-        <v>6.1606</v>
+        <v>0.291</v>
       </c>
       <c r="E115" t="n">
-        <v>1.8281</v>
+        <v>0.3146</v>
       </c>
     </row>
     <row r="116">
@@ -2621,16 +2621,16 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2.9808</v>
+        <v>0.2314</v>
       </c>
       <c r="C116" t="n">
-        <v>1.2199</v>
+        <v>0.3788</v>
       </c>
       <c r="D116" t="n">
-        <v>5.1576</v>
+        <v>0.2249</v>
       </c>
       <c r="E116" t="n">
-        <v>1.6782</v>
+        <v>0.3017</v>
       </c>
     </row>
     <row r="117">
@@ -2640,16 +2640,16 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1.9616</v>
+        <v>0.1641</v>
       </c>
       <c r="C117" t="n">
-        <v>1.0285</v>
+        <v>0.3165</v>
       </c>
       <c r="D117" t="n">
-        <v>3.3889</v>
+        <v>0.3695</v>
       </c>
       <c r="E117" t="n">
-        <v>1.2439</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="118">
@@ -2659,16 +2659,16 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1.7408</v>
+        <v>0.3354</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9468</v>
+        <v>0.4179</v>
       </c>
       <c r="D118" t="n">
-        <v>4.156</v>
+        <v>0.7567</v>
       </c>
       <c r="E118" t="n">
-        <v>1.3248</v>
+        <v>0.6504</v>
       </c>
     </row>
     <row r="119">
@@ -2678,16 +2678,16 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>3.8211</v>
+        <v>0.1641</v>
       </c>
       <c r="C119" t="n">
-        <v>1.302</v>
+        <v>0.3124</v>
       </c>
       <c r="D119" t="n">
-        <v>4.794</v>
+        <v>0.7189</v>
       </c>
       <c r="E119" t="n">
-        <v>1.6445</v>
+        <v>0.5966</v>
       </c>
     </row>
     <row r="120">
@@ -2697,16 +2697,16 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>8.182700000000001</v>
+        <v>0.1495</v>
       </c>
       <c r="C120" t="n">
-        <v>1.8335</v>
+        <v>0.3058</v>
       </c>
       <c r="D120" t="n">
-        <v>3.9255</v>
+        <v>0.6879</v>
       </c>
       <c r="E120" t="n">
-        <v>1.3959</v>
+        <v>0.5913</v>
       </c>
     </row>
     <row r="121">
@@ -2716,16 +2716,16 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2.0637</v>
+        <v>0.3422</v>
       </c>
       <c r="C121" t="n">
-        <v>1.0342</v>
+        <v>0.4334</v>
       </c>
       <c r="D121" t="n">
-        <v>4.6699</v>
+        <v>0.6816</v>
       </c>
       <c r="E121" t="n">
-        <v>1.6689</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="122">
@@ -2735,16 +2735,16 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>4.6762</v>
+        <v>0.2297</v>
       </c>
       <c r="C122" t="n">
-        <v>1.3723</v>
+        <v>0.3815</v>
       </c>
       <c r="D122" t="n">
-        <v>3.3016</v>
+        <v>0.5053</v>
       </c>
       <c r="E122" t="n">
-        <v>1.3233</v>
+        <v>0.5688</v>
       </c>
     </row>
     <row r="123">
@@ -2754,16 +2754,16 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2.0058</v>
+        <v>0.4806</v>
       </c>
       <c r="C123" t="n">
-        <v>1.0362</v>
+        <v>0.4947</v>
       </c>
       <c r="D123" t="n">
-        <v>3.3374</v>
+        <v>0.4725</v>
       </c>
       <c r="E123" t="n">
-        <v>1.3514</v>
+        <v>0.3255</v>
       </c>
     </row>
     <row r="124">
@@ -2773,16 +2773,16 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1.4274</v>
+        <v>0.2781</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8879</v>
+        <v>0.4089</v>
       </c>
       <c r="D124" t="n">
-        <v>2.2882</v>
+        <v>0.2457</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9669</v>
+        <v>0.2819</v>
       </c>
     </row>
     <row r="125">
@@ -2792,16 +2792,16 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1.5517</v>
+        <v>0.3281</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9036999999999999</v>
+        <v>0.4359</v>
       </c>
       <c r="D125" t="n">
-        <v>2.5046</v>
+        <v>0.2889</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9278</v>
+        <v>0.3197</v>
       </c>
     </row>
     <row r="126">
@@ -2811,16 +2811,16 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1.2004</v>
+        <v>0.159</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8232</v>
+        <v>0.3126</v>
       </c>
       <c r="D126" t="n">
-        <v>2.3996</v>
+        <v>0.604</v>
       </c>
       <c r="E126" t="n">
-        <v>0.8716</v>
+        <v>0.6127</v>
       </c>
     </row>
     <row r="127">
@@ -2830,16 +2830,16 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2.1683</v>
+        <v>0.1778</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9933</v>
+        <v>0.3344</v>
       </c>
       <c r="D127" t="n">
-        <v>3.043</v>
+        <v>0.7726</v>
       </c>
       <c r="E127" t="n">
-        <v>1.1966</v>
+        <v>0.6327</v>
       </c>
     </row>
     <row r="128">
@@ -2849,16 +2849,16 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1.0245</v>
+        <v>0.3314</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7619</v>
+        <v>0.4355</v>
       </c>
       <c r="D128" t="n">
-        <v>1.536</v>
+        <v>0.3273</v>
       </c>
       <c r="E128" t="n">
-        <v>0.7684</v>
+        <v>0.3649</v>
       </c>
     </row>
     <row r="129">
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.8631</v>
+        <v>0.2786</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7105</v>
+        <v>0.4118</v>
       </c>
       <c r="D129" t="n">
-        <v>1.5745</v>
+        <v>0.4364</v>
       </c>
       <c r="E129" t="n">
-        <v>0.7724</v>
+        <v>0.3464</v>
       </c>
     </row>
     <row r="130">
@@ -2887,16 +2887,16 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>4.1872</v>
+        <v>0.554</v>
       </c>
       <c r="C130" t="n">
-        <v>1.2719</v>
+        <v>0.5437</v>
       </c>
       <c r="D130" t="n">
-        <v>6.4655</v>
+        <v>0.3812</v>
       </c>
       <c r="E130" t="n">
-        <v>2.1617</v>
+        <v>0.3489</v>
       </c>
     </row>
     <row r="131">
@@ -2906,16 +2906,16 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1.378</v>
+        <v>0.4347</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8399</v>
+        <v>0.5208</v>
       </c>
       <c r="D131" t="n">
-        <v>3.1962</v>
+        <v>0.2905</v>
       </c>
       <c r="E131" t="n">
-        <v>1.2834</v>
+        <v>0.3318</v>
       </c>
     </row>
     <row r="132">
@@ -2925,16 +2925,16 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.7437</v>
+        <v>0.3993</v>
       </c>
       <c r="C132" t="n">
-        <v>0.6563</v>
+        <v>0.5008</v>
       </c>
       <c r="D132" t="n">
-        <v>2.4845</v>
+        <v>0.3565</v>
       </c>
       <c r="E132" t="n">
-        <v>0.9786</v>
+        <v>0.3265</v>
       </c>
     </row>
     <row r="133">
@@ -2944,16 +2944,16 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.8221000000000001</v>
+        <v>0.4291</v>
       </c>
       <c r="C133" t="n">
-        <v>0.6848</v>
+        <v>0.5171</v>
       </c>
       <c r="D133" t="n">
-        <v>1.7432</v>
+        <v>0.6037</v>
       </c>
       <c r="E133" t="n">
-        <v>0.801</v>
+        <v>0.5647</v>
       </c>
     </row>
     <row r="134">
@@ -2963,16 +2963,16 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>5.2258</v>
+        <v>0.5512</v>
       </c>
       <c r="C134" t="n">
-        <v>1.3059</v>
+        <v>0.5904</v>
       </c>
       <c r="D134" t="n">
-        <v>2.3957</v>
+        <v>0.527</v>
       </c>
       <c r="E134" t="n">
-        <v>0.842</v>
+        <v>0.5615</v>
       </c>
     </row>
     <row r="135">
@@ -2982,16 +2982,16 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.9393</v>
+        <v>0.5253</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7167</v>
+        <v>0.5616</v>
       </c>
       <c r="D135" t="n">
-        <v>2.7123</v>
+        <v>0.8123</v>
       </c>
       <c r="E135" t="n">
-        <v>0.9716</v>
+        <v>0.7258</v>
       </c>
     </row>
     <row r="136">
@@ -3001,16 +3001,16 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.6716</v>
+        <v>0.4643</v>
       </c>
       <c r="C136" t="n">
-        <v>0.6273</v>
+        <v>0.5332</v>
       </c>
       <c r="D136" t="n">
-        <v>2.1654</v>
+        <v>0.7885</v>
       </c>
       <c r="E136" t="n">
-        <v>0.7912</v>
+        <v>0.7074</v>
       </c>
     </row>
     <row r="137">
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.6755</v>
+        <v>0.2783</v>
       </c>
       <c r="C137" t="n">
-        <v>0.6296</v>
+        <v>0.4144</v>
       </c>
       <c r="D137" t="n">
-        <v>2.2172</v>
+        <v>0.3463</v>
       </c>
       <c r="E137" t="n">
-        <v>0.7875</v>
+        <v>0.3777</v>
       </c>
     </row>
     <row r="138">
@@ -3039,16 +3039,16 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1.9984</v>
+        <v>0.2154</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8581</v>
+        <v>0.3625</v>
       </c>
       <c r="D138" t="n">
-        <v>3.009</v>
+        <v>0.4706</v>
       </c>
       <c r="E138" t="n">
-        <v>1.2745</v>
+        <v>0.4626</v>
       </c>
     </row>
     <row r="139">
@@ -3058,16 +3058,16 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.6642</v>
+        <v>0.1701</v>
       </c>
       <c r="C139" t="n">
-        <v>0.6251</v>
+        <v>0.3233</v>
       </c>
       <c r="D139" t="n">
-        <v>2.2602</v>
+        <v>0.4232</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9520999999999999</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="140">
@@ -3077,16 +3077,16 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.5548999999999999</v>
+        <v>0.218</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5734</v>
+        <v>0.3572</v>
       </c>
       <c r="D140" t="n">
-        <v>1.9337</v>
+        <v>0.8677</v>
       </c>
       <c r="E140" t="n">
-        <v>0.9072</v>
+        <v>0.6699000000000001</v>
       </c>
     </row>
     <row r="141">
@@ -3096,16 +3096,16 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.6982</v>
+        <v>0.307</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6254</v>
+        <v>0.4133</v>
       </c>
       <c r="D141" t="n">
-        <v>7.0031</v>
+        <v>0.6413</v>
       </c>
       <c r="E141" t="n">
-        <v>1.5858</v>
+        <v>0.4019</v>
       </c>
     </row>
     <row r="142">
@@ -3115,16 +3115,16 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2.2418</v>
+        <v>0.3319</v>
       </c>
       <c r="C142" t="n">
-        <v>0.971</v>
+        <v>0.4261</v>
       </c>
       <c r="D142" t="n">
-        <v>3.0737</v>
+        <v>0.4425</v>
       </c>
       <c r="E142" t="n">
-        <v>0.8844</v>
+        <v>0.4203</v>
       </c>
     </row>
     <row r="143">
@@ -3134,16 +3134,16 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.6493</v>
+        <v>0.2473</v>
       </c>
       <c r="C143" t="n">
-        <v>0.6089</v>
+        <v>0.3864</v>
       </c>
       <c r="D143" t="n">
-        <v>1.6941</v>
+        <v>0.4331</v>
       </c>
       <c r="E143" t="n">
-        <v>0.6808</v>
+        <v>0.3434</v>
       </c>
     </row>
     <row r="144">
@@ -3153,16 +3153,16 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.6148</v>
+        <v>0.2161</v>
       </c>
       <c r="C144" t="n">
-        <v>0.5916</v>
+        <v>0.3431</v>
       </c>
       <c r="D144" t="n">
-        <v>1.5071</v>
+        <v>1.1425</v>
       </c>
       <c r="E144" t="n">
-        <v>0.6567</v>
+        <v>0.7572</v>
       </c>
     </row>
     <row r="145">
@@ -3172,16 +3172,16 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.629</v>
+        <v>0.641</v>
       </c>
       <c r="C145" t="n">
-        <v>0.6034</v>
+        <v>0.5495</v>
       </c>
       <c r="D145" t="n">
-        <v>1.3172</v>
+        <v>0.64</v>
       </c>
       <c r="E145" t="n">
-        <v>0.6957</v>
+        <v>0.4329</v>
       </c>
     </row>
     <row r="146">
@@ -3191,16 +3191,16 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.8771</v>
+        <v>0.2204</v>
       </c>
       <c r="C146" t="n">
-        <v>0.6733</v>
+        <v>0.3652</v>
       </c>
       <c r="D146" t="n">
-        <v>3.0932</v>
+        <v>0.5413</v>
       </c>
       <c r="E146" t="n">
-        <v>0.8666</v>
+        <v>0.3683</v>
       </c>
     </row>
     <row r="147">
@@ -3210,16 +3210,16 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.7679</v>
+        <v>0.1479</v>
       </c>
       <c r="C147" t="n">
-        <v>0.6559</v>
+        <v>0.3003</v>
       </c>
       <c r="D147" t="n">
-        <v>1.1436</v>
+        <v>0.4039</v>
       </c>
       <c r="E147" t="n">
-        <v>0.6302</v>
+        <v>0.3444</v>
       </c>
     </row>
     <row r="148">
@@ -3229,16 +3229,16 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.6334</v>
+        <v>0.2056</v>
       </c>
       <c r="C148" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.3391</v>
       </c>
       <c r="D148" t="n">
-        <v>1.2009</v>
+        <v>1.3156</v>
       </c>
       <c r="E148" t="n">
-        <v>0.6462</v>
+        <v>0.6017</v>
       </c>
     </row>
     <row r="149">
@@ -3248,16 +3248,16 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1.2966</v>
+        <v>0.225</v>
       </c>
       <c r="C149" t="n">
-        <v>0.7592</v>
+        <v>0.3627</v>
       </c>
       <c r="D149" t="n">
-        <v>1.3292</v>
+        <v>0.4379</v>
       </c>
       <c r="E149" t="n">
-        <v>0.6955</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="150">
@@ -3267,16 +3267,16 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>4.2032</v>
+        <v>0.2911</v>
       </c>
       <c r="C150" t="n">
-        <v>1.2189</v>
+        <v>0.4013</v>
       </c>
       <c r="D150" t="n">
-        <v>3.4265</v>
+        <v>0.3672</v>
       </c>
       <c r="E150" t="n">
-        <v>1.0871</v>
+        <v>0.3611</v>
       </c>
     </row>
     <row r="151">
@@ -3286,16 +3286,16 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1.1564</v>
+        <v>0.1864</v>
       </c>
       <c r="C151" t="n">
-        <v>0.7625999999999999</v>
+        <v>0.3355</v>
       </c>
       <c r="D151" t="n">
-        <v>1.5654</v>
+        <v>0.4028</v>
       </c>
       <c r="E151" t="n">
-        <v>0.8804999999999999</v>
+        <v>0.3744</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -424,27 +424,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Epoch</t>
+          <t>epoch</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Loss</t>
+          <t>loss</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>MAE</t>
+          <t>mae</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Val_Loss</t>
+          <t>val_loss</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Val_MAE</t>
+          <t>val_mae</t>
         </is>
       </c>
     </row>
